--- a/results/Depth/Molecule_0/All solutions.xlsx
+++ b/results/Depth/Molecule_0/All solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\results\Depth\Molecule 0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\results\Depth\Molecule_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1E59B7-3AFD-4D0F-8BAE-07A6D5933441}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29553FA5-205D-4C59-B960-28D0B40934F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{5054B46B-2C1F-4518-A6FC-A3C74787B3EE}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A73341D-3AAC-4623-B9F3-31F3B3B2769B}">
-  <dimension ref="B4:C13"/>
+  <dimension ref="B4:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +519,12 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f xml:space="preserve"> C13 / SUM(C10:C13)</f>
+        <v>2.2058823529411766E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
